--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -47,6 +47,9 @@
     <t>Decreto del Tribunale</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t>175-bis</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>175-ter</t>
@@ -399,7 +399,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -407,34 +407,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.07421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.8359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -499,10 +500,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -519,13 +520,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -539,13 +540,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -665,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
@@ -674,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -785,7 +786,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -805,7 +806,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -814,7 +815,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -825,7 +826,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -845,7 +846,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -854,7 +855,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -945,7 +946,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>28</v>
@@ -965,7 +966,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
@@ -974,7 +975,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -985,7 +986,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -1005,7 +1006,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1014,7 +1015,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1025,7 +1026,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1034,7 +1035,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>73</v>
@@ -1114,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1225,7 +1226,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>73</v>
@@ -1245,7 +1246,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>73</v>
@@ -1254,7 +1255,7 @@
         <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1265,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>73</v>
@@ -1285,7 +1286,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>73</v>
@@ -1294,7 +1295,7 @@
         <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1385,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>73</v>
@@ -1405,7 +1406,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>73</v>
@@ -1414,7 +1415,7 @@
         <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1425,7 +1426,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>73</v>
@@ -1445,7 +1446,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>73</v>
@@ -1454,7 +1455,7 @@
         <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1465,7 +1466,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>73</v>
@@ -1474,7 +1475,7 @@
         <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1545,7 +1546,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>76</v>
@@ -1745,7 +1746,7 @@
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>76</v>
@@ -1754,7 +1755,7 @@
         <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -1765,7 +1766,7 @@
         <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>76</v>
@@ -1774,7 +1775,7 @@
         <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -1940,273 +1941,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D512B2C-AA94-4533-A1BF-024ADF4E98DE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9642AD-683A-4B12-A5CB-B4523573ECF4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECF63CA-21D7-4A38-8DAC-272594BE92AD}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
     <t>Formula</t>
@@ -424,14 +445,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.8359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -500,13 +521,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -520,10 +541,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -540,59 +561,59 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -600,19 +621,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -620,19 +641,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -640,19 +661,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -660,79 +681,79 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -740,19 +761,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -760,19 +781,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -780,19 +801,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -800,39 +821,39 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -840,39 +861,39 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -880,19 +901,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -900,19 +921,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -920,19 +941,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -940,119 +961,119 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1060,19 +1081,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1080,19 +1101,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1100,39 +1121,39 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1140,59 +1161,59 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1200,19 +1221,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1220,19 +1241,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1240,39 +1261,39 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1280,39 +1301,39 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1320,19 +1341,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1340,19 +1361,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1360,19 +1381,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1380,119 +1401,119 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1521,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1541,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1540,39 +1561,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1580,59 +1601,59 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1640,19 +1661,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1681,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1680,19 +1701,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1700,19 +1721,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1741,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1740,59 +1761,59 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1800,19 +1821,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1820,19 +1841,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1840,19 +1861,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1860,19 +1881,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1880,61 +1901,201 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -50,7 +50,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>121-bis</t>
-  </si>
-  <si>
-    <t>175-bis</t>
-  </si>
-  <si>
-    <t>175-ter</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -445,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -680,80 +674,80 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -761,19 +755,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -781,39 +775,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -821,39 +815,39 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -861,19 +855,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -881,19 +875,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -901,19 +895,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -921,39 +915,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -961,19 +955,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
@@ -981,19 +975,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1001,39 +995,39 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1041,19 +1035,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1061,19 +1055,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1081,39 +1075,39 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1121,19 +1115,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
@@ -1141,79 +1135,79 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1221,39 +1215,39 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1261,39 +1255,39 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1301,19 +1295,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1321,19 +1315,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1341,19 +1335,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1361,39 +1355,39 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1401,19 +1395,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>20</v>
@@ -1421,19 +1415,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1441,39 +1435,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1481,19 +1475,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1501,19 +1495,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1521,39 +1515,39 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1561,19 +1555,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -1581,79 +1575,79 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1664,16 +1658,16 @@
         <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1684,16 +1678,16 @@
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1701,19 +1695,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1721,19 +1715,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1741,19 +1735,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1761,19 +1755,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1781,19 +1775,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1801,19 +1795,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1821,16 +1815,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>26</v>
@@ -1841,19 +1835,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1861,99 +1855,99 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1961,19 +1955,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1981,19 +1975,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2001,19 +1995,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2021,19 +2015,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2041,61 +2035,21 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,6 +457,7 @@
     <col min="4" max="4" width="45.8359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,205 +479,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -692,1365 +732,1572 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="45.8359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-bis</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-bis</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -733,1571 +736,1571 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -314,22 +320,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Estremi separazione</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1069,7 +1075,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>36</v>
@@ -1078,7 +1084,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1161,7 +1167,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
@@ -1193,7 +1199,7 @@
         <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
@@ -1216,7 +1222,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
@@ -1239,7 +1245,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1276,7 +1282,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>36</v>
@@ -1285,7 +1291,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1339,22 +1345,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>27</v>
@@ -1362,22 +1368,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,22 +1506,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1523,22 +1529,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1546,22 +1552,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1569,22 +1575,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1592,22 +1598,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,22 +1690,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
@@ -1753,22 +1759,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>27</v>
@@ -1776,22 +1782,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1799,22 +1805,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1871,16 +1877,16 @@
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,22 +2081,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2121,22 +2127,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,24 +2288,70 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,69 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo celebrazione</t>
+  </si>
+  <si>
+    <t>Data celebrazione</t>
+  </si>
+  <si>
+    <t>evento.riconciliazione</t>
+  </si>
+  <si>
+    <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.riconciliazione.luogoEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune di celebrazione</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Celebrato da</t>
+  </si>
+  <si>
+    <t>officianteEventoMatrimonio</t>
+  </si>
+  <si>
     <t>Generalità Sposo</t>
   </si>
   <si>
@@ -266,7 +329,7 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
-    <t>Atto matrimonio Riconciliazione - Matrimonio</t>
+    <t>Atto matrimonio</t>
   </si>
   <si>
     <t>Id atto</t>
@@ -350,6 +413,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,in,(2,3)</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -386,16 +452,49 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.riconciliazione.attoAccordoSeparazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,in,(1,2)</t>
+  </si>
+  <si>
+    <t>evento.riconciliazione.attoNegoziazioneAssistita</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,in,(1,3)</t>
+  </si>
+  <si>
+    <t>Conferma Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.riconciliazione.attoConfermaAccordoSeparazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
+  </si>
+  <si>
     <t>Estremi Riconciliazione</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>evento.riconciliazione</t>
+    <t>Data riconciliazione</t>
   </si>
   <si>
     <t>dataRiconciliazione</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Tipo Separazione</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>tipoProvvedimentoSeparazione</t>
   </si>
 </sst>
 </file>
@@ -454,19 +553,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.16015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.8359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="52.0" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="54.21484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -845,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
@@ -854,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
@@ -871,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -888,19 +987,19 @@
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>27</v>
@@ -911,16 +1010,16 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -934,16 +1033,16 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -957,16 +1056,16 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -980,16 +1079,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1003,16 +1102,16 @@
         <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
@@ -1026,16 +1125,16 @@
         <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1046,19 +1145,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>21</v>
@@ -1069,22 +1168,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1092,19 +1191,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1115,19 +1214,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1138,19 +1237,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1161,19 +1260,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1184,19 +1283,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1207,19 +1306,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>21</v>
@@ -1230,19 +1329,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1253,19 +1352,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>21</v>
@@ -1276,19 +1375,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>21</v>
@@ -1299,19 +1398,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1421,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,19 +1444,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1368,22 +1467,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1391,19 +1490,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1414,22 +1513,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>27</v>
@@ -1437,19 +1536,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1460,22 +1559,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>27</v>
@@ -1483,22 +1582,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1506,19 +1605,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,22 +1628,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1552,19 +1651,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>21</v>
@@ -1598,22 +1697,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1621,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1789,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
@@ -1759,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
@@ -1805,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1828,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,22 +2042,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -1966,19 +2065,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2012,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2035,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,7 +2157,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>99</v>
@@ -2067,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>100</v>
@@ -2081,7 +2180,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>101</v>
@@ -2090,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,22 +2203,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2127,22 +2226,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2150,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,22 +2410,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2334,24 +2433,1082 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -321,6 +321,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -553,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1674,22 +1698,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1697,22 +1721,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1720,19 +1744,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,22 +1767,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1766,22 +1790,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>27</v>
@@ -1789,19 +1813,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1836,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,22 +1859,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1858,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,22 +1905,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1904,22 +1928,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1927,22 +1951,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1950,19 +1974,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,22 +1997,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -1996,22 +2020,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -2019,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,22 +2066,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2065,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,22 +2112,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2111,22 +2135,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2134,22 +2158,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2157,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,22 +2204,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2203,22 +2227,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2226,19 +2250,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,22 +2342,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2341,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,22 +2388,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2387,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,22 +2434,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2433,22 +2457,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>27</v>
@@ -2456,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,1036 +2503,1220 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -251,13 +257,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -353,76 +359,88 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
+    <t>Atto di Nascita dello sposo</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita della sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
+  </si>
+  <si>
     <t>Atto matrimonio</t>
   </si>
   <si>
-    <t>Id atto</t>
-  </si>
-  <si>
     <t>evento.riconciliazione.attoMatrimonio</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Estremi separazione</t>
@@ -577,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1221,7 +1239,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>57</v>
@@ -1313,7 +1331,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>57</v>
@@ -1345,7 +1363,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
@@ -1368,7 +1386,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1391,7 +1409,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1428,7 +1446,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>57</v>
@@ -1437,7 +1455,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
@@ -1520,7 +1538,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>57</v>
@@ -1552,7 +1570,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>27</v>
@@ -1575,7 +1593,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>27</v>
@@ -1598,7 +1616,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>27</v>
@@ -1635,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>57</v>
@@ -1644,7 +1662,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1704,7 +1722,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>57</v>
@@ -1736,7 +1754,7 @@
         <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1759,7 +1777,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>27</v>
@@ -1782,7 +1800,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1790,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
@@ -1813,22 +1831,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1836,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1900,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1923,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1951,22 +1969,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1974,19 +1992,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -2020,22 +2038,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -2043,22 +2061,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>27</v>
@@ -2066,22 +2084,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2089,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2158,22 +2176,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2181,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
@@ -2227,22 +2245,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2250,22 +2268,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2273,22 +2291,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2296,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2342,22 +2360,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2365,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>21</v>
@@ -2414,16 +2432,16 @@
         <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2455,19 @@
         <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2457,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2567,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,22 +2636,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2641,22 +2659,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2664,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,1036 +2705,1634 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E136" s="2" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="B161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1515,7 +1521,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>57</v>
@@ -1524,7 +1530,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1538,7 +1544,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>57</v>
@@ -1570,7 +1576,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>27</v>
@@ -1593,7 +1599,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>27</v>
@@ -1616,7 +1622,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>27</v>
@@ -1639,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>27</v>
@@ -1676,7 +1682,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>57</v>
@@ -1685,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1745,7 +1751,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>57</v>
@@ -1777,7 +1783,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>27</v>
@@ -1800,7 +1806,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>27</v>
@@ -1823,7 +1829,7 @@
         <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>27</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
@@ -1854,22 +1860,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2015,22 +2021,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -2038,22 +2044,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -2061,22 +2067,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>27</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2107,22 +2113,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,22 +2182,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
@@ -2291,22 +2297,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2314,22 +2320,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2337,22 +2343,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,22 +2412,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>21</v>
@@ -2478,16 +2484,16 @@
         <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
         <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,7 +3036,7 @@
         <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -3039,7 +3045,7 @@
         <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,16 +3059,16 @@
         <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3234,22 +3240,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3257,22 +3263,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>27</v>
@@ -3280,22 +3286,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>27</v>
@@ -3306,22 +3312,22 @@
         <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -3329,421 +3335,421 @@
         <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
@@ -3752,10 +3758,10 @@
         <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>164</v>
@@ -3763,10 +3769,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3775,7 +3781,7 @@
         <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3786,553 +3792,599 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -267,6 +270,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -601,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -848,1689 +857,1689 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2539,21 +2548,21 @@
         <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2562,21 +2571,21 @@
         <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2585,826 +2594,826 @@
         <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3413,665 +3422,665 @@
         <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
@@ -4080,10 +4089,10 @@
         <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>169</v>
@@ -4091,22 +4100,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>169</v>
@@ -4114,10 +4123,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4126,7 +4135,7 @@
         <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4137,209 +4146,209 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163">
@@ -4347,45 +4356,114 @@
         <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>27</v>
+      <c r="B167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2933,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3094,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3140,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3160,7 +3166,7 @@
         <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3169,7 +3175,7 @@
         <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3183,16 +3189,16 @@
         <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3318,19 +3324,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,22 +3370,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3387,22 +3393,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3410,22 +3416,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3436,22 +3442,22 @@
         <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
@@ -3459,22 +3465,22 @@
         <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
@@ -3482,398 +3488,398 @@
         <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -3882,10 +3888,10 @@
         <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>169</v>
@@ -3893,22 +3899,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>169</v>
@@ -3916,22 +3922,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>169</v>
@@ -3939,10 +3945,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3951,7 +3957,7 @@
         <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3962,507 +3968,645 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -1131,7 +1131,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1329,7 +1341,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>58</v>
@@ -1352,7 +1364,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>58</v>
@@ -1361,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1398,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>58</v>
@@ -1421,7 +1433,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>58</v>
@@ -1430,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1499,7 +1511,7 @@
         <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>28</v>
@@ -1513,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>58</v>
@@ -1522,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1536,7 +1548,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>58</v>
@@ -1545,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1559,7 +1571,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>58</v>
@@ -1568,7 +1580,7 @@
         <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1582,7 +1594,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>58</v>
@@ -1591,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1614,7 +1626,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1752,7 +1764,7 @@
         <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>28</v>
@@ -1766,7 +1778,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>58</v>
@@ -1775,7 +1787,7 @@
         <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1789,7 +1801,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>58</v>
@@ -1798,7 +1810,7 @@
         <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -1835,7 +1847,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>58</v>
@@ -1858,7 +1870,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
@@ -1867,7 +1879,7 @@
         <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1921,22 +1933,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>28</v>
@@ -1944,22 +1956,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1967,22 +1979,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -1990,19 +2002,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2025,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2082,22 +2094,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2105,22 +2117,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2151,22 +2163,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -2174,22 +2186,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2197,22 +2209,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>22</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>22</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2312,22 +2324,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2335,22 +2347,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2358,19 +2370,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>22</v>
@@ -2381,19 +2393,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2416,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
@@ -2427,22 +2439,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2450,22 +2462,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2496,22 +2508,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2519,22 +2531,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2542,22 +2554,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2588,22 +2600,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2634,22 +2646,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2657,19 +2669,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2680,22 +2692,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2703,19 +2715,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2738,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2761,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2784,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2807,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2830,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2853,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2876,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2899,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2922,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2945,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2968,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2991,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3014,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3037,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3060,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3083,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3106,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3129,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3152,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3175,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3198,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3221,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3244,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3267,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3290,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3313,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3336,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3359,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3382,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3405,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,22 +3428,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3439,22 +3451,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3462,22 +3474,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3485,19 +3497,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3508,1105 +3520,1197 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="2" t="s">
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_Riconc_001.xlsx
@@ -41,46 +41,46 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-bis</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale atto di nascita degli sposi</t>
-  </si>
-  <si>
-    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
-  </si>
-  <si>
-    <t>Certificato di eseguita pubblicazione</t>
-  </si>
-  <si>
-    <t>Atto di pubblicazione</t>
-  </si>
-  <si>
-    <t>Richiesta rilascio atto di delega</t>
-  </si>
-  <si>
-    <t>Atto di delegazione</t>
-  </si>
-  <si>
-    <t>Copia atto di matrimonio trascritto</t>
-  </si>
-  <si>
-    <t>Documenti utilizzati per la pubblicazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-bis</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -697,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -717,10 +717,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -740,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -763,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -786,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -809,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -855,10 +855,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -878,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -898,13 +898,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -950,7 +950,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -973,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -996,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -1019,7 +1019,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
@@ -1042,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1065,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -1088,7 +1088,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1097,7 +1097,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -1111,7 +1111,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
@@ -1134,7 +1134,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
@@ -1143,7 +1143,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
@@ -1157,7 +1157,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1180,7 +1180,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1189,7 +1189,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
@@ -1203,7 +1203,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>40</v>
@@ -1212,7 +1212,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1226,7 +1226,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1249,7 +1249,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>58</v>
@@ -1258,7 +1258,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1272,7 +1272,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>58</v>
@@ -1295,7 +1295,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1318,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>58</v>
@@ -1341,7 +1341,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>58</v>
@@ -1364,7 +1364,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>58</v>
@@ -1373,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1387,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>58</v>
@@ -1410,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>58</v>
@@ -1433,7 +1433,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>58</v>
@@ -1456,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>58</v>
@@ -1479,7 +1479,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>58</v>
@@ -1488,7 +1488,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
@@ -1502,7 +1502,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>58</v>
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>58</v>
@@ -1534,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>28</v>
@@ -1548,7 +1548,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>58</v>
@@ -1557,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>58</v>
@@ -1594,7 +1594,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>58</v>
@@ -1617,7 +1617,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>58</v>
@@ -1626,7 +1626,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1640,7 +1640,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>58</v>
@@ -1649,7 +1649,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>28</v>
@@ -1663,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>58</v>
@@ -1686,7 +1686,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>58</v>
@@ -1695,7 +1695,7 @@
         <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>28</v>
@@ -1709,7 +1709,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>58</v>
@@ -1732,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>58</v>
@@ -1741,7 +1741,7 @@
         <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>28</v>
@@ -1755,7 +1755,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>58</v>
@@ -1778,7 +1778,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>58</v>
@@ -1787,7 +1787,7 @@
         <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -1801,7 +1801,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>58</v>
@@ -1810,7 +1810,7 @@
         <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>28</v>
@@ -1824,7 +1824,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>58</v>
@@ -1847,7 +1847,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>58</v>
@@ -1870,7 +1870,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
@@ -1893,7 +1893,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>58</v>
@@ -1916,7 +1916,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>58</v>
@@ -1925,7 +1925,7 @@
         <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>28</v>
@@ -1939,7 +1939,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>58</v>
@@ -1962,7 +1962,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>58</v>
@@ -1971,7 +1971,7 @@
         <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -1985,7 +1985,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>123</v>
@@ -1994,7 +1994,7 @@
         <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>28</v>
@@ -2008,7 +2008,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>123</v>
@@ -2031,7 +2031,7 @@
         <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>123</v>
@@ -2054,7 +2054,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>123</v>
@@ -2077,7 +2077,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>123</v>
@@ -2100,7 +2100,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>123</v>
@@ -2109,7 +2109,7 @@
         <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>28</v>
@@ -2123,7 +2123,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>123</v>
@@ -2146,7 +2146,7 @@
         <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>123</v>
@@ -2169,7 +2169,7 @@
         <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>123</v>
@@ -2192,7 +2192,7 @@
         <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>123</v>
@@ -2215,7 +2215,7 @@
         <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>123</v>
@@ -2224,7 +2224,7 @@
         <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>28</v>
@@ -2238,7 +2238,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>123</v>
@@ -2261,7 +2261,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>123</v>
@@ -2270,7 +2270,7 @@
         <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2284,7 +2284,7 @@
         <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>123</v>
@@ -2293,7 +2293,7 @@
         <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2307,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>123</v>
@@ -2330,7 +2330,7 @@
         <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>123</v>
@@ -2353,7 +2353,7 @@
         <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>123</v>
@@ -2362,7 +2362,7 @@
         <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2376,7 +2376,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>123</v>
@@ -2385,7 +2385,7 @@
         <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2399,7 +2399,7 @@
         <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>123</v>
@@ -2422,7 +2422,7 @@
         <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>123</v>
@@ -2431,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2445,7 +2445,7 @@
         <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>123</v>
@@ -2468,7 +2468,7 @@
         <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>123</v>
@@ -2477,7 +2477,7 @@
         <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2491,7 +2491,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>123</v>
@@ -2514,7 +2514,7 @@
         <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>123</v>
@@ -2523,7 +2523,7 @@
         <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2537,7 +2537,7 @@
         <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>123</v>
@@ -2546,7 +2546,7 @@
         <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2560,7 +2560,7 @@
         <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>123</v>
@@ -2583,7 +2583,7 @@
         <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>123</v>
@@ -2606,7 +2606,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>123</v>
@@ -2629,7 +2629,7 @@
         <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>123</v>
@@ -2652,7 +2652,7 @@
         <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>123</v>
@@ -2661,7 +2661,7 @@
         <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2675,7 +2675,7 @@
         <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>123</v>
@@ -2698,7 +2698,7 @@
         <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>123</v>
@@ -2707,7 +2707,7 @@
         <v>121</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2721,7 +2721,7 @@
         <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>126</v>
@@ -2744,7 +2744,7 @@
         <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>126</v>
@@ -2767,7 +2767,7 @@
         <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>126</v>
@@ -2790,7 +2790,7 @@
         <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>126</v>
@@ -2813,7 +2813,7 @@
         <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>126</v>
@@ -2836,7 +2836,7 @@
         <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>126</v>
@@ -2859,7 +2859,7 @@
         <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>126</v>
@@ -2882,7 +2882,7 @@
         <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>126</v>
@@ -2905,7 +2905,7 @@
         <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>126</v>
@@ -2928,7 +2928,7 @@
         <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>126</v>
@@ -2951,7 +2951,7 @@
         <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>126</v>
@@ -2974,7 +2974,7 @@
         <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>126</v>
@@ -2997,7 +2997,7 @@
         <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>126</v>
@@ -3020,7 +3020,7 @@
         <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>151</v>
@@ -3043,7 +3043,7 @@
         <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>151</v>
@@ -3066,7 +3066,7 @@
         <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>151</v>
@@ -3089,7 +3089,7 @@
         <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>151</v>
@@ -3112,7 +3112,7 @@
         <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>151</v>
@@ -3135,7 +3135,7 @@
         <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>151</v>
@@ -3158,7 +3158,7 @@
         <v>138</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>151</v>
@@ -3181,7 +3181,7 @@
         <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>151</v>
@@ -3204,7 +3204,7 @@
         <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>151</v>
@@ -3227,7 +3227,7 @@
         <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>151</v>
@@ -3250,7 +3250,7 @@
         <v>144</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>151</v>
@@ -3273,7 +3273,7 @@
         <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>151</v>
@@ -3296,7 +3296,7 @@
         <v>148</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>151</v>
@@ -3319,7 +3319,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>153</v>
@@ -3342,7 +3342,7 @@
         <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>153</v>
@@ -3365,7 +3365,7 @@
         <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>153</v>
@@ -3388,7 +3388,7 @@
         <v>132</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>153</v>
@@ -3411,7 +3411,7 @@
         <v>134</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>153</v>
@@ -3434,7 +3434,7 @@
         <v>136</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>153</v>
@@ -3457,7 +3457,7 @@
         <v>138</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>153</v>
@@ -3480,7 +3480,7 @@
         <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>153</v>
@@ -3503,7 +3503,7 @@
         <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>153</v>
@@ -3526,7 +3526,7 @@
         <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>153</v>
@@ -3535,7 +3535,7 @@
         <v>143</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3549,7 +3549,7 @@
         <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>153</v>
@@ -3558,7 +3558,7 @@
         <v>145</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3572,7 +3572,7 @@
         <v>146</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>153</v>
@@ -3581,7 +3581,7 @@
         <v>147</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3595,7 +3595,7 @@
         <v>148</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>153</v>
@@ -3618,7 +3618,7 @@
         <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>156</v>
@@ -3641,7 +3641,7 @@
         <v>159</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>156</v>
@@ -3664,7 +3664,7 @@
         <v>161</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>156</v>
@@ -3687,7 +3687,7 @@
         <v>163</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>156</v>
@@ -3710,7 +3710,7 @@
         <v>165</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>156</v>
@@ -3733,7 +3733,7 @@
         <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>156</v>
@@ -3756,7 +3756,7 @@
         <v>169</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>156</v>
@@ -3779,7 +3779,7 @@
         <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>172</v>
@@ -3802,7 +3802,7 @@
         <v>128</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>172</v>
@@ -3825,7 +3825,7 @@
         <v>130</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>172</v>
@@ -3848,7 +3848,7 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>172</v>
@@ -3871,7 +3871,7 @@
         <v>134</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>172</v>
@@ -3894,7 +3894,7 @@
         <v>136</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>172</v>
@@ -3917,7 +3917,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>172</v>
@@ -3940,7 +3940,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>172</v>
@@ -3963,7 +3963,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>172</v>
@@ -3986,7 +3986,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>172</v>
@@ -3995,7 +3995,7 @@
         <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>173</v>
@@ -4009,7 +4009,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>172</v>
@@ -4018,7 +4018,7 @@
         <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>173</v>
@@ -4032,7 +4032,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>172</v>
@@ -4041,7 +4041,7 @@
         <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>173</v>
@@ -4055,7 +4055,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>172</v>
@@ -4078,7 +4078,7 @@
         <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>174</v>
@@ -4101,7 +4101,7 @@
         <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>174</v>
@@ -4124,7 +4124,7 @@
         <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>174</v>
@@ -4147,7 +4147,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>174</v>
@@ -4170,7 +4170,7 @@
         <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>174</v>
@@ -4193,7 +4193,7 @@
         <v>136</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>174</v>
@@ -4216,7 +4216,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>174</v>
@@ -4239,7 +4239,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>174</v>
@@ -4262,7 +4262,7 @@
         <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>174</v>
@@ -4285,7 +4285,7 @@
         <v>142</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>174</v>
@@ -4294,7 +4294,7 @@
         <v>143</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>175</v>
@@ -4308,7 +4308,7 @@
         <v>144</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>174</v>
@@ -4317,7 +4317,7 @@
         <v>145</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>175</v>
@@ -4331,7 +4331,7 @@
         <v>146</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>174</v>
@@ -4340,7 +4340,7 @@
         <v>147</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>175</v>
@@ -4354,7 +4354,7 @@
         <v>148</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>174</v>
@@ -4377,7 +4377,7 @@
         <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>177</v>
@@ -4400,7 +4400,7 @@
         <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>177</v>
@@ -4423,7 +4423,7 @@
         <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>177</v>
@@ -4446,7 +4446,7 @@
         <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>177</v>
@@ -4469,7 +4469,7 @@
         <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>177</v>
@@ -4492,7 +4492,7 @@
         <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>177</v>
@@ -4515,7 +4515,7 @@
         <v>138</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>177</v>
@@ -4538,7 +4538,7 @@
         <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>177</v>
@@ -4561,7 +4561,7 @@
         <v>141</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>177</v>
@@ -4584,7 +4584,7 @@
         <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>177</v>
@@ -4593,7 +4593,7 @@
         <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>178</v>
@@ -4607,7 +4607,7 @@
         <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>177</v>
@@ -4616,7 +4616,7 @@
         <v>145</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>178</v>
@@ -4630,7 +4630,7 @@
         <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>177</v>
@@ -4639,7 +4639,7 @@
         <v>147</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>178</v>
@@ -4653,7 +4653,7 @@
         <v>148</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>177</v>
@@ -4676,7 +4676,7 @@
         <v>180</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>37</v>
@@ -4699,7 +4699,7 @@
         <v>183</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>184</v>
